--- a/ExampleIG/output/CodeSystem-no-kodeverk-9505.codesystem.xlsx
+++ b/ExampleIG/output/CodeSystem-no-kodeverk-9505.codesystem.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/ExampleIG/output/CodeSystem-no-kodeverk-9505.codesystem.xlsx
+++ b/ExampleIG/output/CodeSystem-no-kodeverk-9505.codesystem.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/ExampleIG/output/CodeSystem-no-kodeverk-9505.codesystem.xlsx
+++ b/ExampleIG/output/CodeSystem-no-kodeverk-9505.codesystem.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/ExampleIG/output/CodeSystem-no-kodeverk-9505.codesystem.xlsx
+++ b/ExampleIG/output/CodeSystem-no-kodeverk-9505.codesystem.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.2.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/ExampleIG/output/CodeSystem-no-kodeverk-9505.codesystem.xlsx
+++ b/ExampleIG/output/CodeSystem-no-kodeverk-9505.codesystem.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.2.0</t>
+    <t>1.2.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/ExampleIG/output/CodeSystem-no-kodeverk-9505.codesystem.xlsx
+++ b/ExampleIG/output/CodeSystem-no-kodeverk-9505.codesystem.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.2.1</t>
+    <t>1.3.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/ExampleIG/output/CodeSystem-no-kodeverk-9505.codesystem.xlsx
+++ b/ExampleIG/output/CodeSystem-no-kodeverk-9505.codesystem.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.3.0</t>
+    <t>1.3.1</t>
   </si>
   <si>
     <t>Name</t>
